--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago_Carlos\Downloads\RelatorioDeTurno2-main\RelatorioDeTurno2-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15D3C48-8F44-4AC4-ADF3-06B02E0A299B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3FA3CA-FE36-4F14-AEF8-C60E03E936F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9030" windowHeight="10305" xr2:uid="{16350974-6396-4C11-8906-4E89E319E7FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>IP</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>10.28.2.45</t>
+  </si>
+  <si>
+    <t>E005EE04</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +705,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>

--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago_Carlos\Downloads\RelatorioDeTurno2-main\RelatorioDeTurno2-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3FA3CA-FE36-4F14-AEF8-C60E03E936F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E65D591-D5E3-40AD-92C6-C080783E33A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9030" windowHeight="10305" xr2:uid="{16350974-6396-4C11-8906-4E89E319E7FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>IP</t>
   </si>
@@ -93,9 +93,6 @@
     <t>V@le#tatfa@01</t>
   </si>
   <si>
-    <t>tatfa@SS01</t>
-  </si>
-  <si>
     <t>Processo</t>
   </si>
   <si>
@@ -127,16 +124,48 @@
   </si>
   <si>
     <t>E005EE04</t>
+  </si>
+  <si>
+    <t>Máq. Da manutenção</t>
+  </si>
+  <si>
+    <t>Est. Engenharia</t>
+  </si>
+  <si>
+    <t>10.28.2.124</t>
+  </si>
+  <si>
+    <t>TATFASS03\VALE</t>
+  </si>
+  <si>
+    <t>V@le#tatf@02</t>
+  </si>
+  <si>
+    <t>TATFASS03\Manut-TFA</t>
+  </si>
+  <si>
+    <t>M@nutencao</t>
+  </si>
+  <si>
+    <t>tfa@SS01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,14 +188,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0739CF89-A0BB-4CF0-BA1C-FD6EE4FC8558}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,10 +528,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -516,10 +548,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -536,10 +568,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -556,10 +588,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -576,10 +608,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -596,10 +628,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -616,7 +648,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -636,7 +668,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -656,7 +688,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -670,13 +702,13 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -690,39 +722,39 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -734,8 +766,53 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F14" r:id="rId1" xr:uid="{CE918E31-B306-42FB-A446-80A673074267}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{93D3AB73-DEFE-4B98-A3C9-839742432C79}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{A7857FF6-E1C3-4E04-B665-123443F29B5D}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago_Carlos\Downloads\RelatorioDeTurno2-main\RelatorioDeTurno2-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago_Carlos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E65D591-D5E3-40AD-92C6-C080783E33A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C1E36B-FE00-4407-AE03-634AC5D3E264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9030" windowHeight="10305" xr2:uid="{16350974-6396-4C11-8906-4E89E319E7FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{16350974-6396-4C11-8906-4E89E319E7FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>IP</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>tfa@SS01</t>
+  </si>
+  <si>
+    <t>Client Supervisório</t>
+  </si>
+  <si>
+    <t>10.28.2.79</t>
+  </si>
+  <si>
+    <t>./SCADA</t>
   </si>
 </sst>
 </file>
@@ -192,10 +201,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -511,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0739CF89-A0BB-4CF0-BA1C-FD6EE4FC8558}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,13 +816,34 @@
         <v>39</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F14" r:id="rId1" xr:uid="{CE918E31-B306-42FB-A446-80A673074267}"/>
     <hyperlink ref="F10" r:id="rId2" xr:uid="{93D3AB73-DEFE-4B98-A3C9-839742432C79}"/>
     <hyperlink ref="F9" r:id="rId3" xr:uid="{A7857FF6-E1C3-4E04-B665-123443F29B5D}"/>
+    <hyperlink ref="F15" r:id="rId4" xr:uid="{1D2C9BD5-1325-4C62-924E-F5CA85A51E00}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago_Carlos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago_Carlos\Downloads\RelatorioDeTurno2-main\RelatorioDeTurno2-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C1E36B-FE00-4407-AE03-634AC5D3E264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E65D591-D5E3-40AD-92C6-C080783E33A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{16350974-6396-4C11-8906-4E89E319E7FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9030" windowHeight="10305" xr2:uid="{16350974-6396-4C11-8906-4E89E319E7FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>IP</t>
   </si>
@@ -148,15 +148,6 @@
   </si>
   <si>
     <t>tfa@SS01</t>
-  </si>
-  <si>
-    <t>Client Supervisório</t>
-  </si>
-  <si>
-    <t>10.28.2.79</t>
-  </si>
-  <si>
-    <t>./SCADA</t>
   </si>
 </sst>
 </file>
@@ -201,11 +192,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -521,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0739CF89-A0BB-4CF0-BA1C-FD6EE4FC8558}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,34 +806,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F14" r:id="rId1" xr:uid="{CE918E31-B306-42FB-A446-80A673074267}"/>
     <hyperlink ref="F10" r:id="rId2" xr:uid="{93D3AB73-DEFE-4B98-A3C9-839742432C79}"/>
     <hyperlink ref="F9" r:id="rId3" xr:uid="{A7857FF6-E1C3-4E04-B665-123443F29B5D}"/>
-    <hyperlink ref="F15" r:id="rId4" xr:uid="{1D2C9BD5-1325-4C62-924E-F5CA85A51E00}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago_Carlos\Downloads\RelatorioDeTurno2-main\RelatorioDeTurno2-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111999D9-46F4-4DA0-9F90-D3EFEE48DEFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Acessos" sheetId="1" r:id="rId4"/>
+    <sheet name="Acessos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
   <si>
     <t>Processo</t>
   </si>
@@ -230,42 +239,46 @@
   </si>
   <si>
     <t>10.26.2.74</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -275,7 +288,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -285,49 +298,59 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -517,28 +540,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A2:A34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.57"/>
-    <col customWidth="1" min="2" max="2" width="15.29"/>
-    <col customWidth="1" min="3" max="3" width="11.14"/>
-    <col customWidth="1" min="4" max="4" width="24.14"/>
-    <col customWidth="1" min="5" max="6" width="15.0"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -578,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -598,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -618,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -638,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -658,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -674,11 +701,14 @@
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -694,11 +724,14 @@
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -714,11 +747,14 @@
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -734,11 +770,14 @@
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -758,7 +797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,7 +817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,11 +833,14 @@
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,11 +856,14 @@
       <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="20.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -834,11 +879,14 @@
       <c r="E15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -858,7 +906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -878,7 +926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -898,7 +946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -918,7 +966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -938,7 +986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -958,7 +1006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -978,7 +1026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
@@ -998,7 +1046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -1018,7 +1066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1038,7 +1086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1058,7 +1106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
@@ -1078,7 +1126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
@@ -1098,7 +1146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
@@ -1118,7 +1166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -1138,7 +1186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -1158,20 +1206,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2126,13 +2174,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F9"/>
-    <hyperlink r:id="rId2" ref="F10"/>
-    <hyperlink r:id="rId3" ref="F14"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId4"/>
 </worksheet>
 </file>